--- a/biology/Botanique/Allée_Andrée-Jacob/Allée_Andrée-Jacob.xlsx
+++ b/biology/Botanique/Allée_Andrée-Jacob/Allée_Andrée-Jacob.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Andr%C3%A9e-Jacob</t>
+          <t>Allée_Andrée-Jacob</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'allée Andrée-Jacob est une allée piétonne située dans le 2e arrondissement de Paris, dans le quartier Vivienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Andr%C3%A9e-Jacob</t>
+          <t>Allée_Andrée-Jacob</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'allée est dans le square Louvois, espace vert central du quartier encadré par quatre voies :
 au nord : la rue de Louvois ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Andr%C3%A9e-Jacob</t>
+          <t>Allée_Andrée-Jacob</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'allée a été nommée en hommage à Andrée Jacob, héroïne de la Libération de Paris, qui a libéré la Bibliothèque nationale de France le 17 août 1944[1]. Elle se situe en face de l'entrée principale de la bibliothèque.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allée a été nommée en hommage à Andrée Jacob, héroïne de la Libération de Paris, qui a libéré la Bibliothèque nationale de France le 17 août 1944. Elle se situe en face de l'entrée principale de la bibliothèque.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Andr%C3%A9e-Jacob</t>
+          <t>Allée_Andrée-Jacob</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les allées du square Louvois sont nommées en mémoire du couple de résistantes Andrée Jacob et Éveline Garnier, inaugurées à l'occasion du 75e anniversaire de la Libération de Paris en août 2019[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les allées du square Louvois sont nommées en mémoire du couple de résistantes Andrée Jacob et Éveline Garnier, inaugurées à l'occasion du 75e anniversaire de la Libération de Paris en août 2019.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Andr%C3%A9e-Jacob</t>
+          <t>Allée_Andrée-Jacob</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,10 +628,12 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'allée jouxte la fontaine Louvois composée de sculptures allégoriques qui représentent quatre grands fleuves et rivières français : la Seine, la Garonne, la Loire, et la Saône.
-Dans l'enceinte du square a été dressée une plaque de verre commémorative qui rappelle le souvenir de dix enfants en bas âge du 2e arrondissement arrêtés par les nazis et envoyés à la mort. Parmi eux, trois enfants d'une même famille[3]. Andrée Jacob et Éveline Garnier ont participé au sauvetage de nombreuses familles juives[4].
+Dans l'enceinte du square a été dressée une plaque de verre commémorative qui rappelle le souvenir de dix enfants en bas âge du 2e arrondissement arrêtés par les nazis et envoyés à la mort. Parmi eux, trois enfants d'une même famille. Andrée Jacob et Éveline Garnier ont participé au sauvetage de nombreuses familles juives.
 </t>
         </is>
       </c>
